--- a/MT2018513_Report.xlsx
+++ b/MT2018513_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15630" windowHeight="7485"/>
+    <workbookView windowWidth="15630" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -54,15 +54,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,13 +64,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,6 +84,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -106,7 +108,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,9 +129,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,21 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -158,45 +197,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -207,187 +207,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,9 +403,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,26 +436,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,176 +466,183 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,6 +724,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" altLang="en-GB"/>
+              <a:t>Plot y vs x : Circle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -733,31 +759,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="smooth"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -772,97 +779,103 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>322.598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>322.121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>320</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>322.598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>322.121</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>321.5</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>320</c:v>
+                  <c:v>318.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>318.501</c:v>
+                  <c:v>317.402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>317.414</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>317.072</c:v>
+                  <c:v>317.878</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>317.729</c:v>
+                  <c:v>318.972</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>318.522</c:v>
+                  <c:v>320.507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>321.458</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>322.409</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242.598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>240</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>241.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>242.121</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>242.598</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>242.598</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>241.503</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>240.021</c:v>
+                  <c:v>237.879</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>238.611</c:v>
+                  <c:v>237.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>238.112</c:v>
+                  <c:v>237.042</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>237.389</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>238.435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>239.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,11 +890,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299630758"/>
-        <c:axId val="85448560"/>
+        <c:axId val="413323206"/>
+        <c:axId val="371703717"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299630758"/>
+        <c:axId val="413323206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,12 +950,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85448560"/>
+        <c:crossAx val="371703717"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85448560"/>
+        <c:axId val="371703717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +1011,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299630758"/>
+        <c:crossAx val="413323206"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1607,23 +1620,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4013200" y="276225"/>
+        <a:off x="3927475" y="920750"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1898,7 +1911,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1925,13 +1938,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>320</v>
+        <v>322.598</v>
       </c>
       <c r="D2">
-        <v>240</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1939,13 +1952,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>322.598</v>
+        <v>322.121</v>
       </c>
       <c r="D3">
-        <v>241.5</v>
+        <v>242.121</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1953,13 +1966,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>322.121</v>
+        <v>321.5</v>
       </c>
       <c r="D4">
-        <v>242.121</v>
+        <v>242.598</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1967,13 +1980,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>321.5</v>
+        <v>320</v>
       </c>
       <c r="D5">
-        <v>242.598</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1981,13 +1994,13 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>320</v>
+        <v>318.5</v>
       </c>
       <c r="D6">
-        <v>243</v>
+        <v>242.598</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1995,13 +2008,13 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C7">
-        <v>318.501</v>
+        <v>317.402</v>
       </c>
       <c r="D7">
-        <v>242.598</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2009,13 +2022,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C8">
-        <v>317.414</v>
+        <v>317</v>
       </c>
       <c r="D8">
-        <v>241.503</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2023,13 +2036,13 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C9">
-        <v>317.072</v>
+        <v>317.878</v>
       </c>
       <c r="D9">
-        <v>240.021</v>
+        <v>237.879</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2037,13 +2050,13 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C10">
-        <v>317.729</v>
+        <v>318.972</v>
       </c>
       <c r="D10">
-        <v>238.611</v>
+        <v>237.18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2051,13 +2064,13 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="C11">
-        <v>318.522</v>
+        <v>320.507</v>
       </c>
       <c r="D11">
-        <v>238.112</v>
+        <v>237.042</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2068,10 +2081,10 @@
         <v>300</v>
       </c>
       <c r="C12">
-        <v>332.003</v>
+        <v>321.458</v>
       </c>
       <c r="D12">
-        <v>242.552</v>
+        <v>237.389</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2082,10 +2095,10 @@
         <v>330</v>
       </c>
       <c r="C13">
-        <v>348.794</v>
+        <v>322.409</v>
       </c>
       <c r="D13">
-        <v>252.71</v>
+        <v>238.435</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2096,10 +2109,10 @@
         <v>360</v>
       </c>
       <c r="C14">
-        <v>382.964</v>
+        <v>322</v>
       </c>
       <c r="D14">
-        <v>275.699</v>
+        <v>239.72</v>
       </c>
     </row>
   </sheetData>
